--- a/problem_list.xlsx
+++ b/problem_list.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\user\harurou\work\compatitive\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94AB9F7-FB76-43C4-9290-AD43A43C3C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E971D4-0B2C-43EF-A5A9-A2827F4DF548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6912" yWindow="4980" windowWidth="22464" windowHeight="14328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6912" yWindow="4740" windowWidth="22464" windowHeight="14328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
   <si>
     <t>code_festival_2017_qualb_c</t>
     <phoneticPr fontId="1"/>
@@ -172,6 +173,738 @@
       <t>タンサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc154_d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁dp</t>
+    <rPh sb="0" eb="1">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Almost Everywhere Zero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chokudai SpeedRun 001_j</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chokudai SpeedRun 001_k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J - 転倒数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K - 辞書順で何番目？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://nemupm.com/blog/2019/03/03/chokudai-speed-run-001/</t>
+  </si>
+  <si>
+    <t>abc038_d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D - プレゼント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIS,2次元,箱が何個入れ子にできるか</t>
+    <rPh sb="5" eb="7">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナンコ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chokudai SpeedRun 002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L - 長方形 β</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIS,2次元,箱が何個入れ子にできるか,箱は回転させてもよいが、方向を合わせておけばabc038_dとまったく同じ</t>
+    <rPh sb="5" eb="7">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナンコ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全列挙</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>レッキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc156_e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc156/tasks/abc156_e</t>
+  </si>
+  <si>
+    <t>Roaming</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複組み合わせ、N&gt;=3,K&gt;=2の制約から操作を任意に+1回できるので、あまりなど考慮しなくてよい</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/s8pc-4/tasks/s8pc_4_b</t>
+  </si>
+  <si>
+    <t>どの建物が見える状態になるか組み合わせを全列挙して、最小のcostを計算</t>
+    <rPh sb="2" eb="4">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>レッキョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc145/tasks/abc145_c</t>
+  </si>
+  <si>
+    <t>next_permutation、sort済でないと駄目だよ</t>
+    <rPh sb="21" eb="22">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ダメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/arc054/tasks/arc054_b</t>
+  </si>
+  <si>
+    <t>B - ムーアの法則</t>
+  </si>
+  <si>
+    <t>arc054_b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>微分して傾き0になるところを2分探索 or 3分探索、3分探索のが楽</t>
+    <rPh sb="0" eb="2">
+      <t>ビブン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc077/tasks/arc084_a</t>
+  </si>
+  <si>
+    <t>C - Snuke Festival</t>
+  </si>
+  <si>
+    <t>abc077_c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bを固定して、aがいくつ取れるかカウントしていく、次にcを固定して、前でとれたbのカウントを加算していく。</t>
+    <rPh sb="2" eb="4">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C - ダーツ</t>
+  </si>
+  <si>
+    <t>半分全列挙(2投の合計を列挙)そこから二分探索して最大を求める</t>
+    <rPh sb="0" eb="2">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レッキョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>レッキョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニブン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>joi2008ho_c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/joi2008ho/tasks/joi2008ho_c</t>
+  </si>
+  <si>
+    <t>https://onlinejudge.u-aizu.ac.jp/courses/lesson/1/ALDS1/all/ALDS1_11_B</t>
+  </si>
+  <si>
+    <t>http://judge.u-aizu.ac.jp/onlinejudge/description.jsp?id=1160&amp;lang=jp</t>
+  </si>
+  <si>
+    <t>dfsだけと、templateグラフでなく2重配列上をdfsしていく</t>
+    <rPh sb="22" eb="23">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>volume1_1160</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Problem B: 島はいくつある？</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc088/tasks/abc088_d</t>
+  </si>
+  <si>
+    <t>dijkstraよりx,yのグリッドに距離を埋めていくbfsのが実装楽。Cost同じならbfsでできる。</t>
+    <rPh sb="19" eb="21">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ラク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D - Grid Repainting</t>
+  </si>
+  <si>
+    <t>abc088_d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DPL_1_C</t>
+  </si>
+  <si>
+    <t>ナップザック問題</t>
+  </si>
+  <si>
+    <t>品物の重複を許す、dp[i][j+1]=dp[i][j-w]+v も入る</t>
+    <rPh sb="0" eb="2">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://judge.u-aizu.ac.jp/onlinejudge/description.jsp?id=DPL_1_C&amp;lang=ja</t>
+  </si>
+  <si>
+    <t>http://judge.u-aizu.ac.jp/onlinejudge/description.jsp?id=DPL_1_A&amp;lang=ja</t>
+  </si>
+  <si>
+    <t>1次元dpでよい</t>
+    <rPh sb="1" eb="3">
+      <t>ジゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coin Changing Problem</t>
+  </si>
+  <si>
+    <t>DPL_1_A</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/joi2015yo/tasks/joi2015yo_d</t>
+  </si>
+  <si>
+    <t>D - シルクロード (Silk Road)</t>
+  </si>
+  <si>
+    <t>joi2015yo_d</t>
+  </si>
+  <si>
+    <t>LCSみたいに、matrixで考えた。ななめと上からのmin</t>
+    <rPh sb="15" eb="16">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://judge.u-aizu.ac.jp/onlinejudge/description.jsp?id=1611&amp;lang=jp</t>
+  </si>
+  <si>
+    <t>volume16_1611</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダルマ落とし</t>
+  </si>
+  <si>
+    <t>l,rのペアが取れるのは、その間がすべて取れている場合</t>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巡回セールスマン問題</t>
+  </si>
+  <si>
+    <t>DPL_2_A</t>
+  </si>
+  <si>
+    <t>http://judge.u-aizu.ac.jp/onlinejudge/description.jsp?id=DPL_2_A&amp;lang=ja</t>
+  </si>
+  <si>
+    <t>bitDP、一周して帰ってくるができなかった、0からスタートして、0で全部巡回の値をとる、閉路なのでどこからスタートしても同じ</t>
+    <rPh sb="6" eb="8">
+      <t>イッシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘイロ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bitDP、0-indexで書き直した、個数もdpで。</t>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc134/tasks/abc134_e</t>
+  </si>
+  <si>
+    <t>LISっぱいけど違う、入れれる列がいくつになるか?入れれる列の終端を更新していく。</t>
+    <rPh sb="8" eb="9">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュウタン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc134_e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E - Sequence Decomposing</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc074/tasks/arc083_b</t>
+  </si>
+  <si>
+    <t>abc074_d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D - Restoring Road Network</t>
+  </si>
+  <si>
+    <t>warshall_floyd、回して中継地点を挟んだ和が等しいpathは除いていく。</t>
+    <rPh sb="15" eb="16">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チュウケイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/joi2011ho/tasks/joi2011ho1</t>
+  </si>
+  <si>
+    <t>二次元累積和</t>
+    <rPh sb="0" eb="3">
+      <t>ニジゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A - 惑星探査 (Planetary Exploration)</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc106/tasks/abc106_d</t>
+  </si>
+  <si>
+    <t>D - AtCoder Express 2</t>
+  </si>
+  <si>
+    <t>joi2011ho1</t>
+  </si>
+  <si>
+    <t>http://judge.u-aizu.ac.jp/onlinejudge/description.jsp?id=1193&amp;lang=jp</t>
+  </si>
+  <si>
+    <t>連鎖消滅パズル</t>
+  </si>
+  <si>
+    <t>B - 石落としゲーム</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/s8pc-3/tasks/s8pc_3_b</t>
+  </si>
+  <si>
+    <t>s8pc_3_b</t>
+  </si>
+  <si>
+    <t>実装問題、落ちものの処理、うえからずらして落す</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc150/tasks/abc150_d</t>
+  </si>
+  <si>
+    <t>abc150_d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D - Semi Common Multiple</t>
+  </si>
+  <si>
+    <t>偶奇、奇数分のカウントだけど、2のべき乗の数があわないと整理しない判定が必要</t>
+    <rPh sb="0" eb="2">
+      <t>グウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/sumitrust2019/tasks/sumitb2019_e</t>
+  </si>
+  <si>
+    <t>E - Colorful Hats 2</t>
+  </si>
+  <si>
+    <t>数の分布が何通りかを掛けていく</t>
+    <rPh sb="0" eb="1">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナントオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sumitb2019_e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁数と桁和で決まっている</t>
+    <rPh sb="0" eb="1">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/ddcc2020-qual/tasks/ddcc2020_qual_d</t>
+  </si>
+  <si>
+    <t>ddcc2020_qual_d</t>
+  </si>
+  <si>
+    <t>D - Digit Sum Replace</t>
   </si>
 </sst>
 </file>
@@ -223,10 +956,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -508,113 +1244,977 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>43849</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E5" s="1">
         <v>43833</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E6" s="1">
         <v>43833</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E8" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E9" s="1">
         <v>43854</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E10" s="1">
         <v>43856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43871</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>24</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>48</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>63</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" t="s">
+        <v>92</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>78</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" t="s">
+        <v>94</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>79</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" t="s">
+        <v>94</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>92</v>
+      </c>
+      <c r="C106" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" t="s">
+        <v>104</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>93</v>
+      </c>
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" t="s">
+        <v>101</v>
+      </c>
+      <c r="D107" t="s">
+        <v>104</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>97</v>
+      </c>
+      <c r="B111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" t="s">
+        <v>107</v>
+      </c>
+      <c r="D111" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>98</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" t="s">
+        <v>111</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>99</v>
+      </c>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" t="s">
+        <v>113</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{AA564475-058A-4C13-AB8E-2A871BB30957}"/>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{AA564475-058A-4C13-AB8E-2A871BB30957}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{293E9ACD-52DD-4FC2-8B42-92F31B7C5527}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{60F2C82C-D2D4-4358-B67A-697D81D46218}"/>
+    <hyperlink ref="F28" r:id="rId4" xr:uid="{3A2E0B91-DA0F-4AA8-A823-652F2EFBCC91}"/>
+    <hyperlink ref="F29" r:id="rId5" xr:uid="{EBB20AC9-079A-4ED9-98C5-C06D64FA7C2F}"/>
+    <hyperlink ref="F36" r:id="rId6" xr:uid="{D2D845C9-7013-4E4C-AD0A-7F5D7BAF0A5D}"/>
+    <hyperlink ref="F34" r:id="rId7" xr:uid="{9E97D8C5-4A4F-409D-A7E7-AFCB404FB8F7}"/>
+    <hyperlink ref="F37" r:id="rId8" xr:uid="{22F31445-7C37-4363-B422-3EC85668D448}"/>
+    <hyperlink ref="F38" r:id="rId9" xr:uid="{2BE2ED59-C503-4B32-925C-3B6A37103B6D}"/>
+    <hyperlink ref="F39" r:id="rId10" xr:uid="{E096BCE9-D78A-40D8-8FF8-143C361AEACD}"/>
+    <hyperlink ref="F47" r:id="rId11" xr:uid="{2C2B2A6F-3F4E-44A4-8A81-7E78528D1508}"/>
+    <hyperlink ref="F50" r:id="rId12" xr:uid="{11667ADB-E0D0-4822-9E2D-A4BA245544BD}"/>
+    <hyperlink ref="F51" r:id="rId13" xr:uid="{488F5AE2-147F-42D1-AF04-2E044559A73E}"/>
+    <hyperlink ref="F56" r:id="rId14" xr:uid="{0B4CFBE0-B3CB-43BD-A464-97D607C22BA4}"/>
+    <hyperlink ref="F62" r:id="rId15" xr:uid="{F7595EF7-3570-48D8-9967-96A74E9CB837}"/>
+    <hyperlink ref="F63" r:id="rId16" xr:uid="{6B59EC7B-32E3-465B-81FB-6DD580949248}"/>
+    <hyperlink ref="F69" r:id="rId17" xr:uid="{D1677232-C1F6-43CA-9B85-10DB7696C3B4}"/>
+    <hyperlink ref="F77" r:id="rId18" xr:uid="{FC965641-BAE6-4558-A246-79033D57A153}"/>
+    <hyperlink ref="F92" r:id="rId19" xr:uid="{365CD855-CE22-4531-A88C-0BED9CAAB30A}"/>
+    <hyperlink ref="F93" r:id="rId20" xr:uid="{B89A0B94-7992-4499-B846-226475B7E242}"/>
+    <hyperlink ref="F106" r:id="rId21" xr:uid="{23B44EBC-2AFE-49CD-9FB6-F5C46A489AD2}"/>
+    <hyperlink ref="F107" r:id="rId22" xr:uid="{15504F15-4DBD-42DF-B613-0565DFA3A648}"/>
+    <hyperlink ref="F111" r:id="rId23" xr:uid="{3707AA7D-D3DC-4230-9341-3EE30535157E}"/>
+    <hyperlink ref="F112" r:id="rId24" xr:uid="{4FDDCD98-8F5D-48E3-9DD2-710DC834E4ED}"/>
+    <hyperlink ref="F113" r:id="rId25" xr:uid="{48C49E98-53A0-4754-A945-B4118AA5F29E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/problem_list.xlsx
+++ b/problem_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\user\harurou\work\compatitive\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E971D4-0B2C-43EF-A5A9-A2827F4DF548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA61E52B-F2A4-48F1-B4D5-6D971A11BF49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6912" yWindow="4740" windowWidth="22464" windowHeight="14328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
   <si>
     <t>code_festival_2017_qualb_c</t>
     <phoneticPr fontId="1"/>
@@ -905,6 +904,50 @@
   </si>
   <si>
     <t>D - Digit Sum Replace</t>
+  </si>
+  <si>
+    <t>cの枚数を増やしていくを全探索</t>
+    <rPh sb="2" eb="4">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3桁の番号を全探索する、番号がきまればそれを作れるか、そこも全探索でよい</t>
+    <rPh sb="1" eb="2">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1246,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1466,10 +1509,16 @@
       <c r="A19">
         <v>5</v>
       </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
         <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6">

--- a/problem_list.xlsx
+++ b/problem_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\user\harurou\work\compatitive\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA61E52B-F2A4-48F1-B4D5-6D971A11BF49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853A84CB-DFEF-4605-80F1-CD33545B27CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6912" yWindow="4740" windowWidth="22464" windowHeight="14328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
   <si>
     <t>code_festival_2017_qualb_c</t>
     <phoneticPr fontId="1"/>
@@ -947,6 +947,10 @@
     <rPh sb="31" eb="33">
       <t>タンサク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit全探索、shiftは1LLつける</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1290,7 +1294,7 @@
   <dimension ref="A2:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1544,6 +1548,9 @@
     <row r="25" spans="1:6">
       <c r="A25">
         <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6">
